--- a/pred_ohlcv/54/2019-10-22 FX ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-22 FX ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D2" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E2" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F2" t="n">
-        <v>63151.9738</v>
+        <v>3458.8056</v>
       </c>
       <c r="G2" t="n">
-        <v>112.6</v>
+        <v>112.4333333333333</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C3" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D3" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E3" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F3" t="n">
-        <v>31110.4</v>
+        <v>63151.9738</v>
       </c>
       <c r="G3" t="n">
-        <v>112.8</v>
+        <v>112.6</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>119</v>
+      </c>
+      <c r="C4" t="n">
         <v>120</v>
       </c>
-      <c r="C4" t="n">
-        <v>122</v>
-      </c>
       <c r="D4" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E4" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" t="n">
-        <v>52285.3983</v>
+        <v>31110.4</v>
       </c>
       <c r="G4" t="n">
-        <v>113</v>
+        <v>112.8</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>120</v>
+      </c>
+      <c r="C5" t="n">
         <v>122</v>
       </c>
-      <c r="C5" t="n">
-        <v>124</v>
-      </c>
       <c r="D5" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E5" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F5" t="n">
-        <v>37482.9993</v>
+        <v>52285.3983</v>
       </c>
       <c r="G5" t="n">
-        <v>113.2666666666667</v>
+        <v>113</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C6" t="n">
         <v>124</v>
       </c>
       <c r="D6" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E6" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F6" t="n">
-        <v>41428.7538</v>
+        <v>37482.9993</v>
       </c>
       <c r="G6" t="n">
-        <v>113.55</v>
+        <v>113.2666666666667</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>41428.7538</v>
       </c>
       <c r="G7" t="n">
-        <v>113.8666666666667</v>
+        <v>113.55</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -570,19 +593,22 @@
         <v>125</v>
       </c>
       <c r="D8" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E8" t="n">
         <v>125</v>
       </c>
       <c r="F8" t="n">
-        <v>16209.364</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>114.1333333333333</v>
+        <v>113.8666666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -590,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C9" t="n">
         <v>125</v>
@@ -602,13 +628,16 @@
         <v>125</v>
       </c>
       <c r="F9" t="n">
-        <v>12468.06179685039</v>
+        <v>16209.364</v>
       </c>
       <c r="G9" t="n">
-        <v>114.3833333333333</v>
+        <v>114.1333333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -616,25 +645,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>127</v>
+      </c>
+      <c r="C10" t="n">
         <v>125</v>
       </c>
-      <c r="C10" t="n">
-        <v>123</v>
-      </c>
       <c r="D10" t="n">
+        <v>127</v>
+      </c>
+      <c r="E10" t="n">
         <v>125</v>
       </c>
-      <c r="E10" t="n">
-        <v>123</v>
-      </c>
       <c r="F10" t="n">
-        <v>1785.2279</v>
+        <v>12468.06179685039</v>
       </c>
       <c r="G10" t="n">
-        <v>114.6166666666667</v>
+        <v>114.3833333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C11" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D11" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E11" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F11" t="n">
-        <v>12547.24042580645</v>
+        <v>1785.2279</v>
       </c>
       <c r="G11" t="n">
-        <v>114.7333333333333</v>
+        <v>114.6166666666667</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>122</v>
+      </c>
+      <c r="C12" t="n">
         <v>121</v>
       </c>
-      <c r="C12" t="n">
-        <v>122</v>
-      </c>
       <c r="D12" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E12" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F12" t="n">
-        <v>30440.4254</v>
+        <v>12547.24042580645</v>
       </c>
       <c r="G12" t="n">
-        <v>114.8833333333333</v>
+        <v>114.7333333333333</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C13" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D13" t="n">
         <v>122</v>
       </c>
       <c r="E13" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F13" t="n">
-        <v>13001.31076229508</v>
+        <v>30440.4254</v>
       </c>
       <c r="G13" t="n">
-        <v>114.9666666666667</v>
+        <v>114.8833333333333</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -723,21 +764,24 @@
         <v>120</v>
       </c>
       <c r="C14" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D14" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E14" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F14" t="n">
-        <v>2393.2708</v>
+        <v>13001.31076229508</v>
       </c>
       <c r="G14" t="n">
-        <v>115.0333333333333</v>
+        <v>114.9666666666667</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C15" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D15" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E15" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F15" t="n">
-        <v>60439.3063</v>
+        <v>2393.2708</v>
       </c>
       <c r="G15" t="n">
         <v>115.0333333333333</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C16" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D16" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E16" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F16" t="n">
-        <v>7866.0765</v>
+        <v>60439.3063</v>
       </c>
       <c r="G16" t="n">
-        <v>115</v>
+        <v>115.0333333333333</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C17" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D17" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E17" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F17" t="n">
-        <v>847.457627118644</v>
+        <v>7866.0765</v>
       </c>
       <c r="G17" t="n">
         <v>115</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C18" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E18" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F18" t="n">
-        <v>20783.3782</v>
+        <v>847.457627118644</v>
       </c>
       <c r="G18" t="n">
-        <v>115.0333333333333</v>
+        <v>115</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C19" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D19" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E19" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F19" t="n">
-        <v>19240.4997</v>
+        <v>20783.3782</v>
       </c>
       <c r="G19" t="n">
-        <v>115.0666666666667</v>
+        <v>115.0333333333333</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -885,15 +944,18 @@
         <v>120</v>
       </c>
       <c r="E20" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F20" t="n">
-        <v>3679.0084</v>
+        <v>19240.4997</v>
       </c>
       <c r="G20" t="n">
-        <v>115.1166666666667</v>
+        <v>115.0666666666667</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C21" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D21" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E21" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F21" t="n">
-        <v>11017.5844</v>
+        <v>3679.0084</v>
       </c>
       <c r="G21" t="n">
         <v>115.1166666666667</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C22" t="n">
         <v>117</v>
       </c>
       <c r="D22" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E22" t="n">
         <v>117</v>
       </c>
       <c r="F22" t="n">
-        <v>62.6776</v>
+        <v>11017.5844</v>
       </c>
       <c r="G22" t="n">
-        <v>115.15</v>
+        <v>115.1166666666667</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -966,12 +1034,15 @@
         <v>117</v>
       </c>
       <c r="F23" t="n">
-        <v>7800</v>
+        <v>62.6776</v>
       </c>
       <c r="G23" t="n">
-        <v>115.1833333333333</v>
+        <v>115.15</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -983,21 +1054,24 @@
         <v>117</v>
       </c>
       <c r="C24" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D24" t="n">
         <v>117</v>
       </c>
       <c r="E24" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F24" t="n">
-        <v>8043</v>
+        <v>7800</v>
       </c>
       <c r="G24" t="n">
-        <v>115.2</v>
+        <v>115.1833333333333</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1018,12 +1092,15 @@
         <v>116</v>
       </c>
       <c r="F25" t="n">
-        <v>3669.8109</v>
+        <v>8043</v>
       </c>
       <c r="G25" t="n">
-        <v>115.2166666666667</v>
+        <v>115.2</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C26" t="n">
         <v>116</v>
       </c>
       <c r="D26" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E26" t="n">
         <v>116</v>
       </c>
       <c r="F26" t="n">
-        <v>1025.0621</v>
+        <v>3669.8109</v>
       </c>
       <c r="G26" t="n">
-        <v>115.2333333333333</v>
+        <v>115.2166666666667</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1070,12 +1150,15 @@
         <v>116</v>
       </c>
       <c r="F27" t="n">
-        <v>743.2608</v>
+        <v>1025.0621</v>
       </c>
       <c r="G27" t="n">
-        <v>115.3166666666667</v>
+        <v>115.2333333333333</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1087,22 +1170,25 @@
         <v>116</v>
       </c>
       <c r="C28" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D28" t="n">
         <v>116</v>
       </c>
       <c r="E28" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F28" t="n">
-        <v>580.1292</v>
+        <v>743.2608</v>
       </c>
       <c r="G28" t="n">
-        <v>115.3833333333333</v>
+        <v>115.3166666666667</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1110,25 +1196,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C29" t="n">
         <v>115</v>
       </c>
       <c r="D29" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E29" t="n">
         <v>115</v>
       </c>
       <c r="F29" t="n">
-        <v>5418.3347</v>
+        <v>580.1292</v>
       </c>
       <c r="G29" t="n">
-        <v>115.4166666666667</v>
+        <v>115.3833333333333</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1136,25 +1225,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C30" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D30" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E30" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F30" t="n">
-        <v>16149.0438</v>
+        <v>5418.3347</v>
       </c>
       <c r="G30" t="n">
-        <v>115.45</v>
+        <v>115.4166666666667</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1165,22 +1257,25 @@
         <v>114</v>
       </c>
       <c r="C31" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D31" t="n">
         <v>114</v>
       </c>
       <c r="E31" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F31" t="n">
-        <v>7107.6107</v>
+        <v>16149.0438</v>
       </c>
       <c r="G31" t="n">
-        <v>115.4333333333333</v>
+        <v>115.45</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1188,25 +1283,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C32" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D32" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E32" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>7107.6107</v>
       </c>
       <c r="G32" t="n">
-        <v>115.45</v>
+        <v>115.4333333333333</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1214,7 +1312,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C33" t="n">
         <v>115</v>
@@ -1223,16 +1321,19 @@
         <v>115</v>
       </c>
       <c r="E33" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F33" t="n">
-        <v>3508.5808</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
         <v>115.45</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1240,7 +1341,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C34" t="n">
         <v>115</v>
@@ -1249,15 +1350,18 @@
         <v>115</v>
       </c>
       <c r="E34" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F34" t="n">
-        <v>464.796</v>
+        <v>3508.5808</v>
       </c>
       <c r="G34" t="n">
-        <v>115.4833333333333</v>
+        <v>115.45</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1269,21 +1373,24 @@
         <v>113</v>
       </c>
       <c r="C35" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D35" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E35" t="n">
         <v>113</v>
       </c>
       <c r="F35" t="n">
-        <v>27827.0252</v>
+        <v>464.796</v>
       </c>
       <c r="G35" t="n">
         <v>115.4833333333333</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1295,21 +1402,24 @@
         <v>113</v>
       </c>
       <c r="C36" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" t="n">
         <v>113</v>
       </c>
       <c r="E36" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F36" t="n">
-        <v>6763.6948</v>
+        <v>27827.0252</v>
       </c>
       <c r="G36" t="n">
-        <v>115.4666666666667</v>
+        <v>115.4833333333333</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C37" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D37" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E37" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>6763.6948</v>
       </c>
       <c r="G37" t="n">
-        <v>115.5</v>
+        <v>115.4666666666667</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C38" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E38" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F38" t="n">
-        <v>7111.0565</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>115.4833333333333</v>
+        <v>115.5</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1382,12 +1498,15 @@
         <v>113</v>
       </c>
       <c r="F39" t="n">
-        <v>2800</v>
+        <v>7111.0565</v>
       </c>
       <c r="G39" t="n">
-        <v>115.45</v>
+        <v>115.4833333333333</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C40" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D40" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E40" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>2800</v>
       </c>
       <c r="G40" t="n">
-        <v>115.5</v>
+        <v>115.45</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C41" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D41" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E41" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F41" t="n">
-        <v>4754.8497</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>115.45</v>
+        <v>115.5</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C42" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D42" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E42" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>4754.8497</v>
       </c>
       <c r="G42" t="n">
         <v>115.45</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C43" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D43" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E43" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F43" t="n">
-        <v>102654.6769</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
         <v>115.45</v>
       </c>
       <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C44" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D44" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E44" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F44" t="n">
-        <v>3659.5104</v>
+        <v>102654.6769</v>
       </c>
       <c r="G44" t="n">
-        <v>115.4833333333333</v>
+        <v>115.45</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C45" t="n">
         <v>111</v>
       </c>
       <c r="D45" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E45" t="n">
         <v>111</v>
       </c>
       <c r="F45" t="n">
-        <v>1413</v>
+        <v>3659.5104</v>
       </c>
       <c r="G45" t="n">
-        <v>115.5166666666667</v>
+        <v>115.4833333333333</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1558,18 +1695,21 @@
         <v>111</v>
       </c>
       <c r="D46" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E46" t="n">
         <v>111</v>
       </c>
       <c r="F46" t="n">
-        <v>2514</v>
+        <v>1413</v>
       </c>
       <c r="G46" t="n">
-        <v>115.55</v>
+        <v>115.5166666666667</v>
       </c>
       <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C47" t="n">
         <v>111</v>
       </c>
       <c r="D47" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E47" t="n">
         <v>111</v>
       </c>
       <c r="F47" t="n">
-        <v>263</v>
+        <v>2514</v>
       </c>
       <c r="G47" t="n">
-        <v>115.5833333333333</v>
+        <v>115.55</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C48" t="n">
         <v>111</v>
       </c>
       <c r="D48" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E48" t="n">
         <v>111</v>
       </c>
       <c r="F48" t="n">
-        <v>12</v>
+        <v>263</v>
       </c>
       <c r="G48" t="n">
-        <v>115.6166666666667</v>
+        <v>115.5833333333333</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1633,21 +1779,24 @@
         <v>111</v>
       </c>
       <c r="C49" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D49" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E49" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F49" t="n">
-        <v>5032.184</v>
+        <v>12</v>
       </c>
       <c r="G49" t="n">
-        <v>115.6666666666667</v>
+        <v>115.6166666666667</v>
       </c>
       <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1659,21 +1808,24 @@
         <v>111</v>
       </c>
       <c r="C50" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D50" t="n">
         <v>112</v>
       </c>
       <c r="E50" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F50" t="n">
-        <v>3014</v>
+        <v>5032.184</v>
       </c>
       <c r="G50" t="n">
-        <v>115.6833333333333</v>
+        <v>115.6666666666667</v>
       </c>
       <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,12 +1846,15 @@
         <v>111</v>
       </c>
       <c r="F51" t="n">
-        <v>13</v>
+        <v>3014</v>
       </c>
       <c r="G51" t="n">
-        <v>115.7166666666667</v>
+        <v>115.6833333333333</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1714,18 +1869,21 @@
         <v>111</v>
       </c>
       <c r="D52" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E52" t="n">
         <v>111</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G52" t="n">
-        <v>115.7666666666667</v>
+        <v>115.7166666666667</v>
       </c>
       <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1737,21 +1895,24 @@
         <v>111</v>
       </c>
       <c r="C53" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D53" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E53" t="n">
         <v>111</v>
       </c>
       <c r="F53" t="n">
-        <v>1959</v>
+        <v>3</v>
       </c>
       <c r="G53" t="n">
-        <v>115.8333333333333</v>
+        <v>115.7666666666667</v>
       </c>
       <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1763,21 +1924,24 @@
         <v>111</v>
       </c>
       <c r="C54" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D54" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E54" t="n">
         <v>111</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>1959</v>
       </c>
       <c r="G54" t="n">
-        <v>115.8166666666667</v>
+        <v>115.8333333333333</v>
       </c>
       <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1789,21 +1953,24 @@
         <v>111</v>
       </c>
       <c r="C55" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D55" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E55" t="n">
         <v>111</v>
       </c>
       <c r="F55" t="n">
-        <v>990.25</v>
+        <v>3</v>
       </c>
       <c r="G55" t="n">
-        <v>115.85</v>
+        <v>115.8166666666667</v>
       </c>
       <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,10 +1979,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C56" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D56" t="n">
         <v>112</v>
@@ -1824,12 +1991,15 @@
         <v>111</v>
       </c>
       <c r="F56" t="n">
-        <v>210</v>
+        <v>990.25</v>
       </c>
       <c r="G56" t="n">
         <v>115.85</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C57" t="n">
         <v>111</v>
       </c>
       <c r="D57" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E57" t="n">
         <v>111</v>
       </c>
       <c r="F57" t="n">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="G57" t="n">
-        <v>115.7833333333333</v>
+        <v>115.85</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C58" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D58" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E58" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F58" t="n">
-        <v>7208.9866</v>
+        <v>8</v>
       </c>
       <c r="G58" t="n">
-        <v>115.8166666666667</v>
+        <v>115.7833333333333</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C59" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D59" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E59" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F59" t="n">
-        <v>6</v>
+        <v>7208.9866</v>
       </c>
       <c r="G59" t="n">
-        <v>115.75</v>
+        <v>115.8166666666667</v>
       </c>
       <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1919,21 +2098,24 @@
         <v>110</v>
       </c>
       <c r="C60" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D60" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E60" t="n">
         <v>110</v>
       </c>
       <c r="F60" t="n">
-        <v>37336.1052</v>
+        <v>6</v>
       </c>
       <c r="G60" t="n">
-        <v>115.7166666666667</v>
+        <v>115.75</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,7 +2124,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C61" t="n">
         <v>112</v>
@@ -1951,15 +2133,18 @@
         <v>114</v>
       </c>
       <c r="E61" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F61" t="n">
-        <v>10</v>
+        <v>37336.1052</v>
       </c>
       <c r="G61" t="n">
-        <v>115.6666666666667</v>
+        <v>115.7166666666667</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1974,18 +2159,21 @@
         <v>112</v>
       </c>
       <c r="D62" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E62" t="n">
         <v>112</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>115.5666666666667</v>
+        <v>115.6666666666667</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2000,18 +2188,21 @@
         <v>112</v>
       </c>
       <c r="D63" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E63" t="n">
         <v>112</v>
       </c>
       <c r="F63" t="n">
-        <v>3114.0973</v>
+        <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>115.4333333333333</v>
+        <v>115.5666666666667</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2032,12 +2223,15 @@
         <v>112</v>
       </c>
       <c r="F64" t="n">
-        <v>3050.8849</v>
+        <v>3114.0973</v>
       </c>
       <c r="G64" t="n">
-        <v>115.2666666666667</v>
+        <v>115.4333333333333</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2049,7 +2243,7 @@
         <v>112</v>
       </c>
       <c r="C65" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D65" t="n">
         <v>113</v>
@@ -2058,12 +2252,15 @@
         <v>112</v>
       </c>
       <c r="F65" t="n">
-        <v>6633.316</v>
+        <v>3050.8849</v>
       </c>
       <c r="G65" t="n">
-        <v>115.0833333333333</v>
+        <v>115.2666666666667</v>
       </c>
       <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,10 +2269,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C66" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D66" t="n">
         <v>113</v>
@@ -2084,12 +2281,15 @@
         <v>112</v>
       </c>
       <c r="F66" t="n">
-        <v>27306.0113</v>
+        <v>6633.316</v>
       </c>
       <c r="G66" t="n">
-        <v>114.8833333333333</v>
+        <v>115.0833333333333</v>
       </c>
       <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C67" t="n">
         <v>112</v>
       </c>
       <c r="D67" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E67" t="n">
         <v>112</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>27306.0113</v>
       </c>
       <c r="G67" t="n">
-        <v>114.6666666666667</v>
+        <v>114.8833333333333</v>
       </c>
       <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2136,12 +2339,15 @@
         <v>112</v>
       </c>
       <c r="F68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
-        <v>114.45</v>
+        <v>114.6666666666667</v>
       </c>
       <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,12 +2368,15 @@
         <v>112</v>
       </c>
       <c r="F69" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G69" t="n">
-        <v>114.2333333333333</v>
+        <v>114.45</v>
       </c>
       <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>112</v>
       </c>
       <c r="F70" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G70" t="n">
-        <v>114.05</v>
+        <v>114.2333333333333</v>
       </c>
       <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>112</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G71" t="n">
-        <v>113.9</v>
+        <v>114.05</v>
       </c>
       <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C72" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D72" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E72" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F72" t="n">
-        <v>20232.4347</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>113.75</v>
+        <v>113.9</v>
       </c>
       <c r="H72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2260,18 +2478,21 @@
         <v>113</v>
       </c>
       <c r="D73" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E73" t="n">
         <v>113</v>
       </c>
       <c r="F73" t="n">
-        <v>8849.557500000001</v>
+        <v>20232.4347</v>
       </c>
       <c r="G73" t="n">
-        <v>113.6166666666667</v>
+        <v>113.75</v>
       </c>
       <c r="H73" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2292,12 +2513,15 @@
         <v>113</v>
       </c>
       <c r="F74" t="n">
-        <v>10512.7805</v>
+        <v>8849.557500000001</v>
       </c>
       <c r="G74" t="n">
-        <v>113.5</v>
+        <v>113.6166666666667</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2318,12 +2542,15 @@
         <v>113</v>
       </c>
       <c r="F75" t="n">
-        <v>4</v>
+        <v>10512.7805</v>
       </c>
       <c r="G75" t="n">
-        <v>113.4333333333333</v>
+        <v>113.5</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,12 +2571,15 @@
         <v>113</v>
       </c>
       <c r="F76" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G76" t="n">
-        <v>113.4</v>
+        <v>113.4333333333333</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2370,12 +2600,15 @@
         <v>113</v>
       </c>
       <c r="F77" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>113.3166666666667</v>
+        <v>113.4</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2396,12 +2629,15 @@
         <v>113</v>
       </c>
       <c r="F78" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G78" t="n">
-        <v>113.2166666666667</v>
+        <v>113.3166666666667</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2422,12 +2658,15 @@
         <v>113</v>
       </c>
       <c r="F79" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G79" t="n">
-        <v>113.1</v>
+        <v>113.2166666666667</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2448,12 +2687,15 @@
         <v>113</v>
       </c>
       <c r="F80" t="n">
-        <v>3894.2068</v>
+        <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>112.9833333333333</v>
+        <v>113.1</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C81" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D81" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E81" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F81" t="n">
-        <v>1.1</v>
+        <v>3894.2068</v>
       </c>
       <c r="G81" t="n">
-        <v>112.9333333333333</v>
+        <v>112.9833333333333</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C82" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D82" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E82" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F82" t="n">
-        <v>10001</v>
+        <v>1.1</v>
       </c>
       <c r="G82" t="n">
         <v>112.9333333333333</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>113</v>
+      </c>
+      <c r="C83" t="n">
         <v>117</v>
-      </c>
-      <c r="C83" t="n">
-        <v>115</v>
       </c>
       <c r="D83" t="n">
         <v>117</v>
       </c>
       <c r="E83" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F83" t="n">
-        <v>1008</v>
+        <v>10001</v>
       </c>
       <c r="G83" t="n">
-        <v>112.9</v>
+        <v>112.9333333333333</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2543,21 +2794,24 @@
         <v>117</v>
       </c>
       <c r="C84" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D84" t="n">
         <v>117</v>
       </c>
       <c r="E84" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F84" t="n">
-        <v>1.1</v>
+        <v>1008</v>
       </c>
       <c r="G84" t="n">
-        <v>112.9166666666667</v>
+        <v>112.9</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C85" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D85" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E85" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F85" t="n">
-        <v>713.9246000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G85" t="n">
-        <v>112.8666666666667</v>
+        <v>112.9166666666667</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C86" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D86" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E86" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F86" t="n">
-        <v>5</v>
+        <v>713.9246000000001</v>
       </c>
       <c r="G86" t="n">
-        <v>112.8333333333333</v>
+        <v>112.8666666666667</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C87" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D87" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E87" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G87" t="n">
-        <v>112.7833333333333</v>
+        <v>112.8333333333333</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2656,12 +2919,15 @@
         <v>113</v>
       </c>
       <c r="F88" t="n">
-        <v>16785.1027</v>
+        <v>4</v>
       </c>
       <c r="G88" t="n">
-        <v>112.75</v>
+        <v>112.7833333333333</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C89" t="n">
         <v>113</v>
       </c>
       <c r="D89" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E89" t="n">
         <v>113</v>
       </c>
       <c r="F89" t="n">
-        <v>4425.7787</v>
+        <v>16785.1027</v>
       </c>
       <c r="G89" t="n">
-        <v>112.7166666666667</v>
+        <v>112.75</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C90" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D90" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E90" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F90" t="n">
-        <v>3</v>
+        <v>4425.7787</v>
       </c>
       <c r="G90" t="n">
-        <v>112.6666666666667</v>
+        <v>112.7166666666667</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C91" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D91" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E91" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G91" t="n">
         <v>112.6666666666667</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C92" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D92" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E92" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F92" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
         <v>112.6666666666667</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C93" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D93" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E93" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>559</v>
       </c>
       <c r="G93" t="n">
-        <v>112.6166666666667</v>
+        <v>112.6666666666667</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,16 +3081,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C94" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D94" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E94" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F94" t="n">
         <v>1</v>
@@ -2818,6 +3099,9 @@
         <v>112.6166666666667</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,12 +3122,15 @@
         <v>115</v>
       </c>
       <c r="F95" t="n">
-        <v>1.45</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>112.65</v>
+        <v>112.6166666666667</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,12 +3151,15 @@
         <v>115</v>
       </c>
       <c r="F96" t="n">
-        <v>1.1</v>
+        <v>1.45</v>
       </c>
       <c r="G96" t="n">
-        <v>112.7</v>
+        <v>112.65</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C97" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D97" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E97" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F97" t="n">
-        <v>3115.7781</v>
+        <v>1.1</v>
       </c>
       <c r="G97" t="n">
-        <v>112.65</v>
+        <v>112.7</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C98" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D98" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E98" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F98" t="n">
-        <v>117</v>
+        <v>3115.7781</v>
       </c>
       <c r="G98" t="n">
-        <v>112.6666666666667</v>
+        <v>112.65</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C99" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D99" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E99" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F99" t="n">
-        <v>1784.6747</v>
+        <v>117</v>
       </c>
       <c r="G99" t="n">
-        <v>112.6333333333333</v>
+        <v>112.6666666666667</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2959,21 +3258,24 @@
         <v>111</v>
       </c>
       <c r="C100" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D100" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E100" t="n">
         <v>111</v>
       </c>
       <c r="F100" t="n">
-        <v>295.9294</v>
+        <v>1784.6747</v>
       </c>
       <c r="G100" t="n">
-        <v>112.6</v>
+        <v>112.6333333333333</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2985,541 +3287,24 @@
         <v>111</v>
       </c>
       <c r="C101" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D101" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E101" t="n">
         <v>111</v>
       </c>
       <c r="F101" t="n">
-        <v>55.5</v>
+        <v>295.9294</v>
       </c>
       <c r="G101" t="n">
-        <v>112.5833333333333</v>
+        <v>112.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>113</v>
-      </c>
-      <c r="C102" t="n">
-        <v>113</v>
-      </c>
-      <c r="D102" t="n">
-        <v>113</v>
-      </c>
-      <c r="E102" t="n">
-        <v>113</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1</v>
-      </c>
-      <c r="G102" t="n">
-        <v>112.55</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>113</v>
-      </c>
-      <c r="C103" t="n">
-        <v>114</v>
-      </c>
-      <c r="D103" t="n">
-        <v>114</v>
-      </c>
-      <c r="E103" t="n">
-        <v>113</v>
-      </c>
-      <c r="F103" t="n">
-        <v>87</v>
-      </c>
-      <c r="G103" t="n">
-        <v>112.6166666666667</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>114</v>
-      </c>
-      <c r="C104" t="n">
-        <v>114</v>
-      </c>
-      <c r="D104" t="n">
-        <v>114</v>
-      </c>
-      <c r="E104" t="n">
-        <v>114</v>
-      </c>
-      <c r="F104" t="n">
-        <v>2</v>
-      </c>
-      <c r="G104" t="n">
-        <v>112.6666666666667</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>114</v>
-      </c>
-      <c r="C105" t="n">
-        <v>114</v>
-      </c>
-      <c r="D105" t="n">
-        <v>114</v>
-      </c>
-      <c r="E105" t="n">
-        <v>114</v>
-      </c>
-      <c r="F105" t="n">
-        <v>20766</v>
-      </c>
-      <c r="G105" t="n">
-        <v>112.7166666666667</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>114</v>
-      </c>
-      <c r="C106" t="n">
-        <v>115</v>
-      </c>
-      <c r="D106" t="n">
-        <v>115</v>
-      </c>
-      <c r="E106" t="n">
-        <v>114</v>
-      </c>
-      <c r="F106" t="n">
-        <v>5</v>
-      </c>
-      <c r="G106" t="n">
-        <v>112.7833333333333</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>113</v>
-      </c>
-      <c r="C107" t="n">
-        <v>113</v>
-      </c>
-      <c r="D107" t="n">
-        <v>113</v>
-      </c>
-      <c r="E107" t="n">
-        <v>113</v>
-      </c>
-      <c r="F107" t="n">
-        <v>7273.6017</v>
-      </c>
-      <c r="G107" t="n">
-        <v>112.8166666666667</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>115</v>
-      </c>
-      <c r="C108" t="n">
-        <v>115</v>
-      </c>
-      <c r="D108" t="n">
-        <v>115</v>
-      </c>
-      <c r="E108" t="n">
-        <v>115</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1</v>
-      </c>
-      <c r="G108" t="n">
-        <v>112.8833333333333</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>114</v>
-      </c>
-      <c r="C109" t="n">
-        <v>114</v>
-      </c>
-      <c r="D109" t="n">
-        <v>114</v>
-      </c>
-      <c r="E109" t="n">
-        <v>114</v>
-      </c>
-      <c r="F109" t="n">
-        <v>2056.0137</v>
-      </c>
-      <c r="G109" t="n">
-        <v>112.9166666666667</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>114</v>
-      </c>
-      <c r="C110" t="n">
-        <v>115</v>
-      </c>
-      <c r="D110" t="n">
-        <v>115</v>
-      </c>
-      <c r="E110" t="n">
-        <v>114</v>
-      </c>
-      <c r="F110" t="n">
-        <v>2364</v>
-      </c>
-      <c r="G110" t="n">
-        <v>112.9833333333333</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>115</v>
-      </c>
-      <c r="C111" t="n">
-        <v>115</v>
-      </c>
-      <c r="D111" t="n">
-        <v>115</v>
-      </c>
-      <c r="E111" t="n">
-        <v>115</v>
-      </c>
-      <c r="F111" t="n">
-        <v>1</v>
-      </c>
-      <c r="G111" t="n">
-        <v>113.05</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>114</v>
-      </c>
-      <c r="C112" t="n">
-        <v>113</v>
-      </c>
-      <c r="D112" t="n">
-        <v>114</v>
-      </c>
-      <c r="E112" t="n">
-        <v>113</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1524.3532</v>
-      </c>
-      <c r="G112" t="n">
-        <v>113.0833333333333</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>115</v>
-      </c>
-      <c r="C113" t="n">
-        <v>115</v>
-      </c>
-      <c r="D113" t="n">
-        <v>115</v>
-      </c>
-      <c r="E113" t="n">
-        <v>115</v>
-      </c>
-      <c r="F113" t="n">
-        <v>11</v>
-      </c>
-      <c r="G113" t="n">
-        <v>113.1333333333333</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>115</v>
-      </c>
-      <c r="C114" t="n">
-        <v>115</v>
-      </c>
-      <c r="D114" t="n">
-        <v>115</v>
-      </c>
-      <c r="E114" t="n">
-        <v>115</v>
-      </c>
-      <c r="F114" t="n">
-        <v>8782.652099999999</v>
-      </c>
-      <c r="G114" t="n">
-        <v>113.2</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>116</v>
-      </c>
-      <c r="C115" t="n">
-        <v>116</v>
-      </c>
-      <c r="D115" t="n">
-        <v>116</v>
-      </c>
-      <c r="E115" t="n">
-        <v>116</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1</v>
-      </c>
-      <c r="G115" t="n">
-        <v>113.2666666666667</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>116</v>
-      </c>
-      <c r="C116" t="n">
-        <v>119</v>
-      </c>
-      <c r="D116" t="n">
-        <v>119</v>
-      </c>
-      <c r="E116" t="n">
-        <v>116</v>
-      </c>
-      <c r="F116" t="n">
-        <v>8760</v>
-      </c>
-      <c r="G116" t="n">
-        <v>113.4</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>117</v>
-      </c>
-      <c r="C117" t="n">
-        <v>116</v>
-      </c>
-      <c r="D117" t="n">
-        <v>119</v>
-      </c>
-      <c r="E117" t="n">
-        <v>116</v>
-      </c>
-      <c r="F117" t="n">
-        <v>3720.5235</v>
-      </c>
-      <c r="G117" t="n">
-        <v>113.4833333333333</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>117</v>
-      </c>
-      <c r="C118" t="n">
-        <v>118</v>
-      </c>
-      <c r="D118" t="n">
-        <v>118</v>
-      </c>
-      <c r="E118" t="n">
-        <v>117</v>
-      </c>
-      <c r="F118" t="n">
-        <v>323</v>
-      </c>
-      <c r="G118" t="n">
-        <v>113.5333333333333</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>116</v>
-      </c>
-      <c r="C119" t="n">
-        <v>117</v>
-      </c>
-      <c r="D119" t="n">
-        <v>117</v>
-      </c>
-      <c r="E119" t="n">
-        <v>115</v>
-      </c>
-      <c r="F119" t="n">
-        <v>4292.3362</v>
-      </c>
-      <c r="G119" t="n">
-        <v>113.65</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>114</v>
-      </c>
-      <c r="C120" t="n">
-        <v>115</v>
-      </c>
-      <c r="D120" t="n">
-        <v>115</v>
-      </c>
-      <c r="E120" t="n">
-        <v>114</v>
-      </c>
-      <c r="F120" t="n">
-        <v>7026.8596</v>
-      </c>
-      <c r="G120" t="n">
-        <v>113.7</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>115</v>
-      </c>
-      <c r="C121" t="n">
-        <v>115</v>
-      </c>
-      <c r="D121" t="n">
-        <v>115</v>
-      </c>
-      <c r="E121" t="n">
-        <v>115</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1401.6608</v>
-      </c>
-      <c r="G121" t="n">
-        <v>113.75</v>
-      </c>
-      <c r="H121" t="n">
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
